--- a/biology/Zoologie/Bia_(genre)/Bia_(genre).xlsx
+++ b/biology/Zoologie/Bia_(genre)/Bia_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bia  est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae, de la tribu des Brassolini et de la sous-tribu des Biina.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brésil, Équateur, Guyane, Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brésil, Équateur, Guyane, Pérou.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,14 +584,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bia a été décrit par Jakob Hübner en 1819[2].
-L’espèce type est Papilio actorion (Linné)
-Synonyme
-Napho (Hewitson, 1849)[3].
-Taxinomie
-Liste des espèces
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Bia a été décrit par Jakob Hübner en 1819.
+L’espèce type est Papilio actorion (Linné)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bia_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Napho (Hewitson, 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bia_(genre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_(genre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Bia actorion (Linné, 1763)
 Bia peruana (Röber, 1904)
 			Bia actorion actorion
